--- a/SQL/RDMS/vtOlusturma.xlsx
+++ b/SQL/RDMS/vtOlusturma.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Belgeler\Çalışmalar\Data_Science\Data-Science\SQL\RDMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACBB23-D79E-4F9D-8342-89AD9E982FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="6690"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,6 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>USER_</t>
   </si>
@@ -299,12 +308,15 @@
   </si>
   <si>
     <t>KRG0001</t>
+  </si>
+  <si>
+    <t>ORDER_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,6 +481,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -476,9 +491,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -788,18 +800,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I28"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C28" si="7">A21&amp;" "&amp;B21&amp;","</f>
+        <f t="shared" ref="C21:C26" si="7">A21&amp;" "&amp;B21&amp;","</f>
         <v>USERID INT,</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1542,11 +1554,11 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C29" t="str">
         <f>"CREATE TABLE "&amp;A29&amp;"("</f>
-        <v>CREATE TABLE ORDER(</v>
+        <v>CREATE TABLE ORDER_(</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>80</v>
@@ -1640,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31:J36" si="12">H31&amp;" "&amp;I31&amp;","</f>
+        <f t="shared" ref="J31:J35" si="12">H31&amp;" "&amp;I31&amp;","</f>
         <v>ORDERID INT,</v>
       </c>
       <c r="K31" t="s">
@@ -1861,7 +1873,7 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" t="str">
         <f>"CONSTRAINT [PK_"&amp;A29&amp;"] PRIMARY KEY CLUSTERED (ID ASC))"</f>
-        <v>CONSTRAINT [PK_ORDER] PRIMARY KEY CLUSTERED (ID ASC))</v>
+        <v>CONSTRAINT [PK_ORDER_] PRIMARY KEY CLUSTERED (ID ASC))</v>
       </c>
       <c r="D37" t="s">
         <v>61</v>
@@ -1881,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1902,17 +1914,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1979,17 +1991,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2044,17 +2056,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2128,17 +2140,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2189,17 +2201,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2278,17 +2290,17 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2341,17 +2353,17 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2401,17 +2413,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2493,17 +2505,17 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2546,17 +2558,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2641,7 +2653,7 @@
     <mergeCell ref="A9:I9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2649,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2743,7 +2755,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
